--- a/mbs-perturbation/greedy/welm/smote/greedy_welm_tanh_smote_results.xlsx
+++ b/mbs-perturbation/greedy/welm/smote/greedy_welm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6623376623376623</v>
+        <v>0.5120192307692307</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.6748768472906403</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7475728155339806</v>
+        <v>0.5744234800838575</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6605198553250501</v>
+        <v>0.444159208122297</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5528846153846154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.947136563876652</v>
+        <v>0.8872549019607843</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7363013698630136</v>
+        <v>0.6605839416058394</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7247820789202362</v>
+        <v>0.5247179060303366</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9702127659574468</v>
+        <v>0.665</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7215189873417722</v>
+        <v>0.6018099547511313</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6148186334239385</v>
+        <v>0.6353009259259259</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5856832971800434</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9356223175965666</v>
+        <v>0.9900497512437811</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6953748006379585</v>
+        <v>0.6655518394648829</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5474926586853399</v>
+        <v>0.5354622237648965</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6182212581344902</v>
+        <v>0.4543269230769231</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.03879310344827586</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7215189873417721</v>
+        <v>0.07346938775510203</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6603606656125292</v>
+        <v>0.6313015367316342</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6303913006732963</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9705943294861331</v>
+        <v>0.6511949207886962</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7244573921436994</v>
+        <v>0.5151677207321625</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6415947783934188</v>
+        <v>0.5541883601150182</v>
       </c>
     </row>
   </sheetData>
